--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - grace/input/argentina_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - grace/input/argentina_rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowHeight="17930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -3503,7 +3503,7 @@
   <sheetPr/>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -4902,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -5022,10 +5022,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="C8" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5042,10 +5042,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="C9" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5062,10 +5062,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="C10" s="9">
-        <v>109.62356</v>
+        <v>99.57753</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5082,13 +5082,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="C11" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D11" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="C12" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D12" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -5122,13 +5122,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="C13" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D13" s="9">
-        <v>127.4091</v>
+        <v>98.7463</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -5142,16 +5142,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>120.3</v>
+        <v>95.45</v>
       </c>
       <c r="C14" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D14" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E14" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -5162,16 +5162,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>120.3</v>
+        <v>95.45</v>
       </c>
       <c r="C15" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D15" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E15" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -5182,16 +5182,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>120.3</v>
+        <v>95.45</v>
       </c>
       <c r="C16" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D16" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E16" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -5202,16 +5202,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>120.3</v>
+        <v>95.45</v>
       </c>
       <c r="C17" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D17" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E17" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
@@ -5222,16 +5222,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>120.3</v>
+        <v>95.45</v>
       </c>
       <c r="C18" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D18" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E18" s="9">
-        <v>93.29542</v>
+        <v>93.38679</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -5245,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D19" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E19" s="9">
-        <v>66.5751</v>
+        <v>66.66647</v>
       </c>
       <c r="F19" s="9">
         <v>26.72032</v>
@@ -5265,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <v>-17.78554</v>
+        <v>0.83123</v>
       </c>
       <c r="D20" s="9">
-        <v>34.11368</v>
+        <v>5.35951</v>
       </c>
       <c r="E20" s="9">
-        <v>66.5751</v>
+        <v>66.66647</v>
       </c>
       <c r="F20" s="9">
         <v>26.72032</v>
@@ -5290,8 +5290,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -5318,7 +5318,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="C8" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="C9" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5478,10 +5478,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="C10" s="9">
-        <v>109.41289</v>
+        <v>99.57753</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5498,13 +5498,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="C11" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D11" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -5518,13 +5518,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="C12" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D12" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -5538,13 +5538,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="C13" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D13" s="9">
-        <v>127.64009</v>
+        <v>99.36463</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -5558,16 +5558,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>71.3</v>
+        <v>95.45</v>
       </c>
       <c r="C14" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D14" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E14" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -5578,16 +5578,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>71.3</v>
+        <v>95.45</v>
       </c>
       <c r="C15" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D15" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E15" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -5598,16 +5598,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>71.3</v>
+        <v>95.45</v>
       </c>
       <c r="C16" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D16" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E16" s="9">
-        <v>84.45008</v>
+        <v>85.43271</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -5618,13 +5618,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>71.3</v>
+        <v>95.45</v>
       </c>
       <c r="C17" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D17" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E17" s="9">
         <v>84.45008</v>
@@ -5638,13 +5638,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>71.3</v>
+        <v>95.45</v>
       </c>
       <c r="C18" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D18" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E18" s="9">
         <v>84.45008</v>
@@ -5661,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D19" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E19" s="9">
         <v>72.38793</v>
@@ -5681,10 +5681,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <v>-18.2272</v>
+        <v>0.2129</v>
       </c>
       <c r="D20" s="9">
-        <v>43.19001</v>
+        <v>13.93192</v>
       </c>
       <c r="E20" s="9">
         <v>72.38793</v>
